--- a/cra/조회순.xlsx
+++ b/cra/조회순.xlsx
@@ -429,7 +429,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>앵커</t>
+          <t>조회수</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -451,7 +451,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>일몰과 바다 전망이 장관인 솔섬오토캠핑장.</t>
+          <t>조회수 227159</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -481,7 +481,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>운해와 야경이 일품인 휴양림속 야영장</t>
+          <t>조회수 140630</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">아름다운 충주호가 눈앞에 펼쳐지는 오토캠핑장 </t>
+          <t>조회수 112937</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>내장산에서 불어오는 상쾌한 바람 속에 캠핑을 즐기자.</t>
+          <t>조회수 98685</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -566,7 +566,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>고사포해수욕장 송림안에 마련된 국립공원관리공단 운영 캠핑장</t>
+          <t>조회수 92517</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -595,7 +595,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>동해바다를 바라보며 즐기는 캠핑의 낭만</t>
+          <t>조회수 90473</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -625,7 +625,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>동해안에서 가장 아름답다는 장호해변 언덕에 위치한 휴양 캠핑 시설</t>
+          <t>조회수 86359</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -651,7 +651,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>조회수 86331</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>[인천시 서구] 수도권매립지 캠핑장</t>
@@ -680,7 +684,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>기막힌 경관의 MBC ‘나 혼자 산다’ 촬영지</t>
+          <t>조회수 78530</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -709,7 +713,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>바다를 바라보며 즐기는 캠핑장</t>
+          <t>조회수 66656</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -738,7 +742,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>자연과 호흡하며 문화와 쉼을 함께 할 수 있는 곳</t>
+          <t>조회수 64077</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -768,7 +772,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>거제의 명소 학동몽돌해수욕장을 정원처럼 끼고 조성된 학동자동차야영장은 한려해상국립공원이 운영하는 캠핑장이다.</t>
+          <t>조회수 55911</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -795,7 +799,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>평택 안중에 있는 숲속야영장</t>
+          <t>조회수 54660</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -825,7 +829,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>도심 근교에서 즐기는 감성캠핑장</t>
+          <t>조회수 53692</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -854,7 +858,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>다시 꿈꾸고 싶은 그대여, 꿈꾸는 캠핑장에서 꿈꾸라.</t>
+          <t>조회수 53444</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -883,7 +887,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>양지파인리조트 너머에 있는 산속 힐링 캠핑장</t>
+          <t>조회수 53278</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -913,7 +917,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>가족과 함께 즐거운 휴가를 보낼 수 있는 캠핑장</t>
+          <t>조회수 51834</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -937,7 +941,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>학암포 해변에 위치한 캠핑장</t>
+          <t>조회수 50688</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -963,7 +967,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>아빠~ 애들아~ 캠핑 가즈아~~ 생림오토캠핑장으로~~~!!.</t>
+          <t>조회수 48437</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -991,7 +995,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>아라뱃길 두리 생태공원내 캠핑장</t>
+          <t>조회수 41864</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1023,7 +1027,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>모악산 금산사 입구 공영캠핑장</t>
+          <t>조회수 41214</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1048,7 +1052,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>도심 속 숲에서 즐기는 오토캠핑</t>
+          <t>조회수 41099</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1075,7 +1079,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>소나무 향에 취해 해변 캠핑의 낭만을 즐길 수 있는 캠핑장</t>
+          <t>조회수 40497</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1103,7 +1107,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>팔공산 한가운데 자리 잡은 자연친화적 오토캠핑장</t>
+          <t>조회수 39908</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1128,7 +1132,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>프라이빗한 캠핑이 가능한 명소</t>
+          <t>조회수 39192</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1159,7 +1163,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>한눈에 봐도 모든 게 깔끔한 숲속 캠핑장</t>
+          <t>조회수 38819</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1191,7 +1195,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>금호강에 둥지 튼 깔끔하고 프라이빗한 캠핑장</t>
+          <t>조회수 38811</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1218,7 +1222,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>밤하늘의 별빛을 감상하며 즐기는 낭만 캠핑</t>
+          <t>조회수 38357</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1247,7 +1251,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>즐길 거리 가득한 오토캠핑장</t>
+          <t>조회수 38337</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1275,7 +1279,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>회산 백련지에서 연꽃도 보고 캠핑도 하고 1석 2조</t>
+          <t>조회수 38301</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1303,7 +1307,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>백양사의 아름다운 풍광과 함께하는 백양사 가인야영장</t>
+          <t>조회수 38240</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1328,7 +1332,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>형형색색의 무궁화 꽃 속에서 캠핑을 즐길 수 있는 고산 무궁화오토캠핑장</t>
+          <t>조회수 37571</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1355,7 +1359,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>해변에서 조개, 바지락을 캘 수 있는 옥계오토캠핑장.</t>
+          <t>조회수 37135</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1383,7 +1387,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>모노레일과 수영장 목욕탕 시설을 갖춘 리조트급 시설</t>
+          <t>조회수 36970</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1417,7 +1421,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">대한민국 최고 F1 국제 자동차 경기장에서 캠핑을!  </t>
+          <t>조회수 36710</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1442,7 +1446,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>넓은 대단지에 여유롭게 조성한 오토캠핑장</t>
+          <t>조회수 36418</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1472,7 +1476,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>장점 부자, 포천계곡캠핑장에서 만족도 높은 캠핑을!</t>
+          <t>조회수 35877</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1503,7 +1507,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>영월 내리계곡 상류 솔밭과 계곡미가 뛰어난 캠핑장</t>
+          <t>조회수 35861</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1533,7 +1537,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>지리산 달궁계곡에 위치한 국립공원 직영 야영장</t>
+          <t>조회수 35830</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1559,7 +1563,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>대청댐앞에 위치한 리조트형 캠핑장</t>
+          <t>조회수 35657</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1590,7 +1594,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>주왕산이 품은 천혜의 절경</t>
+          <t>조회수 35589</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1615,7 +1619,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>세계프리미엄 갯벌 생태지구에 위치한 글램핑&amp;오토캠핑장</t>
+          <t>조회수 35236</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1646,7 +1650,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>동해와 맞닿은 캐러밴·오토캠핑장</t>
+          <t>조회수 34408</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1672,7 +1676,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>전국 최고 밤나무 그늘과 계곡물놀이, 가을에 무료 알밤 줍기 이벤트까지</t>
+          <t>조회수 32660</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1702,7 +1706,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">몽돌 해변에서 해수욕과 체험을 즐길 수 있는 캠핑장 </t>
+          <t>조회수 32653</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1728,7 +1732,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>캠핑과 함께 다양한 테마 여행까지 즐길 수 당항포 오토캠핑장.</t>
+          <t>조회수 32608</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1761,7 +1765,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>캠핑과 낚시를 동시에 즐길 수 있는 곳</t>
+          <t>조회수 31473</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1789,7 +1793,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>양양 하조대 안쪽  대치계곡에 위치한 호젓한 캠핑장</t>
+          <t>조회수 31365</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1819,7 +1823,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>도심 속 자연친화적 휴식 공간, 광주시민의숲 야영장!</t>
+          <t>조회수 31338</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1845,7 +1849,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>촛대바위를 조망하며 누리는 캠핑</t>
+          <t>조회수 31256</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1872,7 +1876,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>충주호 앞에 자리한 럭셔리 글램핑&amp;캠핑</t>
+          <t>조회수 31052</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1902,7 +1906,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>두 가지 이상의 행복을 느낄 수 있는 곳</t>
+          <t>조회수 30844</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1931,7 +1935,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>운문사 인근에 자리한 캠핑장</t>
+          <t>조회수 30603</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1959,7 +1963,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>조회수 30427</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>[경상북도 문경시] 문경 단산 숲속 캠핑장</t>
@@ -1983,7 +1991,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>국립공원 계룡산에서 즐기는 캠핑장</t>
+          <t>조회수 30377</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2008,7 +2016,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>텐트를 열면 푸른 바다가 눈앞으로 모이는 곳</t>
+          <t>조회수 30314</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2035,7 +2043,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>익산의 빼어난 풍경을 감상할 수 있는 성당포구 금강체험관 야영장</t>
+          <t>조회수 30273</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2063,7 +2071,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>오토캠핑과 캐러밴을 한 자리에서</t>
+          <t>조회수 30267</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2096,7 +2104,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>북한산 기슭에서 만끽하는 글램핑</t>
+          <t>조회수 29203</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
